--- a/biology/Botanique/Lomatium/Lomatium.xlsx
+++ b/biology/Botanique/Lomatium/Lomatium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lomatium est un genre de plantes à fleurs de la famille des Apiaceae. Il comprend une centaine d'espèces toutes endémiques d'Amérique du Nord.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des vivaces acaulescentes issues d'une racine verticale épaissie, avec plusieurs feuilles basales pennées ou ternées pennées décomposées[1].
-Le fruit est oblong à suborbiculaire, fortement aplati dorsalement, les côtes latérales avec des ailes plates bien visibles, les autres minces ; le carpophore est bifide à la base. Les fleurs sont disposées en ombelles composées, avec plusieurs à de nombreux rayons généralement inégaux ; les involucres sont minuscules ou inexistantes ; les ombellules sont densément nombreuses ; les bractées sont toutes sur la face externe de l'ombellule, souvent connées ; les sépales sont minuscules ou inexistantes ; les pétales sont jaune ou blanc (ou rosâtre) ; le stylopode est à peine développé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des vivaces acaulescentes issues d'une racine verticale épaissie, avec plusieurs feuilles basales pennées ou ternées pennées décomposées.
+Le fruit est oblong à suborbiculaire, fortement aplati dorsalement, les côtes latérales avec des ailes plates bien visibles, les autres minces ; le carpophore est bifide à la base. Les fleurs sont disposées en ombelles composées, avec plusieurs à de nombreux rayons généralement inégaux ; les involucres sont minuscules ou inexistantes ; les ombellules sont densément nombreuses ; les bractées sont toutes sur la face externe de l'ombellule, souvent connées ; les sépales sont minuscules ou inexistantes ; les pétales sont jaune ou blanc (ou rosâtre) ; le stylopode est à peine développé.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (22 juin 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (22 juin 2021) :
 Lomatium alatum
 Lomatium alpinum (J.M.Coult. &amp; Rose) J.F.Macbr.
 Lomatium ambiguum (Nutt.) J.M.Coult. &amp; Rose
@@ -686,10 +702,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique de ce taxon est Lomatium, choisi en 1819 par le botaniste Constantin Rafinesque, pour l'espèce type Lomatium villosum[3].
-Les genres suivants sont synonymes de Lomatium selon GBIF       (22 juin 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique de ce taxon est Lomatium, choisi en 1819 par le botaniste Constantin Rafinesque, pour l'espèce type Lomatium villosum.
+Les genres suivants sont synonymes de Lomatium selon GBIF       (22 juin 2021) :
 Cogswellia Spreng.
 Cusickia M.E.Jones
 Cynomarathrum Nutt. ex Coult. &amp; Rose
